--- a/Project/Phase 1/Sprint1/Sprint Backlog 1.xlsx
+++ b/Project/Phase 1/Sprint1/Sprint Backlog 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Desktop\uni\3º ano\IA\ganttproject\Project\Phase 1\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\IdeaProjects\ganttproject\Project\Phase 1\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBC810-F368-43AA-AFBC-E62831EB2C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4510A015-FD1A-4DCA-8140-BE65210D6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9392BBC0-9733-4AE7-99B2-F5E85BB9E650}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{9392BBC0-9733-4AE7-99B2-F5E85BB9E650}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>TODO</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Done by</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todos </t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>Nádia Mendes</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,58 +392,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +768,7 @@
   <dimension ref="B2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,89 +783,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
+      <c r="L4" s="21"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -865,23 +868,17 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>44853</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="13"/>
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
       <c r="K6" s="13"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
@@ -890,7 +887,7 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>44853</v>
       </c>
       <c r="E7" s="9"/>
@@ -901,12 +898,6 @@
       <c r="J7" s="4"/>
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
@@ -915,23 +906,19 @@
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>44853</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="4"/>
       <c r="I8" s="11"/>
       <c r="J8" s="4"/>
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
@@ -940,69 +927,61 @@
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>44853</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="11"/>
       <c r="J9" s="4"/>
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16">
-        <v>44853</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="15">
+        <v>44855</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="4"/>
       <c r="I10" s="11"/>
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="29">
+        <v>44855</v>
+      </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="4"/>
       <c r="I11" s="11"/>
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -1018,12 +997,6 @@
       <c r="J12" s="4"/>
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1039,12 +1012,6 @@
       <c r="J13" s="4"/>
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
@@ -1060,12 +1027,6 @@
       <c r="J14" s="4"/>
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
     </row>
     <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
@@ -1081,18 +1042,9 @@
       <c r="J15" s="6"/>
       <c r="K15" s="12"/>
       <c r="L15" s="6"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E17" s="31"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="30"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1110,5 +1062,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>